--- a/Document/設定ファイル仕様.xlsx
+++ b/Document/設定ファイル仕様.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaneko\OneDrive\Project\JointAutomaticEvaluationSystem\WeldEvaluation\src\WeldEvaluation\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaneko\OneDrive\Project\JointAutomaticEvaluationSystem\WeldEvaluation\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F6A81B-3D39-4E18-AF81-4C666B143D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33BA741-5EF6-494C-90B5-7C2C8FC06F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="180" windowWidth="27990" windowHeight="15810" xr2:uid="{B9C7890A-3367-49D1-82FB-1C09402CEB00}"/>
+    <workbookView xWindow="45" yWindow="1965" windowWidth="22995" windowHeight="11835" xr2:uid="{B9C7890A-3367-49D1-82FB-1C09402CEB00}"/>
   </bookViews>
   <sheets>
     <sheet name="システムファイル" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="204">
   <si>
     <t>ファイル名：system.cnf</t>
     <rPh sb="4" eb="5">
@@ -1984,6 +1984,42 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScanStartID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScanEndID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキャン開始ID</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキャン終了ID</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※未設定、デフォルトは0</t>
+    <rPh sb="1" eb="4">
+      <t>ミセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※未設定、デフォルトはDivisionNumber-1</t>
+    <rPh sb="1" eb="4">
+      <t>ミセッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2863,10 +2899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2616B9AA-E40B-4839-943E-D900A961A7E7}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2874,7 +2910,7 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2992,488 +3028,513 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
-      <c r="C13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="C13" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
-      <c r="C14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>33</v>
+      <c r="C14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="25"/>
+      <c r="C15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="11"/>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
-      <c r="C19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="16"/>
+      <c r="C19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
-      <c r="C20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
-      <c r="C21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="11"/>
+      <c r="C21" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
-      <c r="C22" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="16"/>
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
-      <c r="C23" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="16"/>
+      <c r="C23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
       <c r="C27" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="16"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
       <c r="C30" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
       <c r="C33" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="1"/>
       <c r="C34" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E34" s="16"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1"/>
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="16"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="1"/>
-      <c r="C36" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="27"/>
+      <c r="C36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
-      <c r="C37" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>197</v>
-      </c>
+      <c r="C37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
-      <c r="C38" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="2"/>
+      <c r="C38" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D41" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="1"/>
-      <c r="C40" s="17" t="s">
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="1"/>
+      <c r="C42" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D42" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="7" t="s">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C43" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
-      <c r="C42" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="16"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B45" s="1"/>
       <c r="C45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B46" s="1"/>
+      <c r="C46" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D47" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="8"/>
-      <c r="C46" s="17" t="s">
+      <c r="E47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="8"/>
+      <c r="C48" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D48" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B47" s="1" t="s">
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
-      <c r="C48" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="1"/>
-      <c r="C49" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="1"/>
       <c r="C50" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E50" s="16"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
       <c r="C51" s="15" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="C52" s="15" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E53" s="16"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="15" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E54" s="16"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="1"/>
       <c r="C55" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" s="16"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="C57" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B58" s="1"/>
+      <c r="C58" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="1"/>
+      <c r="C59" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D57" s="15" t="s">
+      <c r="D59" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="3"/>
-      <c r="C58" s="22" t="s">
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="3"/>
+      <c r="C60" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D60" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E58" s="23"/>
-    </row>
-    <row r="59" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
